--- a/data/trans_bre/P1428-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1428-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>3.143491978229676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.793118649097811</v>
+        <v>4.793118649097809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.229403004342689</v>
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.265940611899751</v>
+        <v>2.679069244814846</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7211311705694597</v>
+        <v>-0.5917645210989049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.183623354719893</v>
+        <v>-1.308995670215263</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.141249246960881</v>
+        <v>2.150039357999996</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2588917856272961</v>
+        <v>0.3037429638432491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1654705621719763</v>
+        <v>-0.1797657814103922</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.208821754997259</v>
+        <v>-0.1884303176131655</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4225546880175571</v>
+        <v>0.4937584461085548</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.61789099077332</v>
+        <v>12.59806767548577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.737726553573503</v>
+        <v>8.108540270757995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.694534040136508</v>
+        <v>7.457573517810309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.45278291805689</v>
+        <v>7.326199946851516</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.018384176352275</v>
+        <v>3.114370593969106</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3.018263625401844</v>
+        <v>3.110496141901437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.987471223415602</v>
+        <v>2.020880565724697</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.187924977213377</v>
+        <v>4.208246728670638</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>6.240970825174512</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.159276096348123</v>
+        <v>5.159276096348124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>3.023936546083978</v>
@@ -749,7 +749,7 @@
         <v>2.038508838461389</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.34076987429327</v>
+        <v>1.340769874293271</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.938447765107391</v>
+        <v>10.03417459377694</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.475286178870137</v>
+        <v>3.578858233536709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.313660247982703</v>
+        <v>3.596881655357432</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.564005750470831</v>
+        <v>2.403961993929484</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.603698158494782</v>
+        <v>1.657592329089696</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6719939658533137</v>
+        <v>0.8048999542663146</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6207260262524978</v>
+        <v>0.7296936475589015</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4771650879413388</v>
+        <v>0.4133831481232515</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.78982669216463</v>
+        <v>17.90925562875269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.658576923583576</v>
+        <v>9.908316354974247</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.499606103631802</v>
+        <v>9.763803690146267</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.553204244902359</v>
+        <v>7.70864753638403</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.742880791145324</v>
+        <v>5.623420185021748</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.29293477927857</v>
+        <v>6.109396266769165</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.535494589420747</v>
+        <v>4.962073900758543</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.085327086532193</v>
+        <v>2.913187247710781</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.966931470700984</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.92084204761138</v>
+        <v>9.920842047611384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>4.012621164118917</v>
@@ -849,7 +849,7 @@
         <v>1.027052541726803</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1.656968743508221</v>
+        <v>1.656968743508222</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>10.38410430023855</v>
+        <v>10.45948676362122</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.721466401260612</v>
+        <v>2.467788213889189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5193098670209778</v>
+        <v>0.7741666895661384</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.292078039962927</v>
+        <v>6.335256046820693</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.750061413926273</v>
+        <v>1.79470286235976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2269404490038922</v>
+        <v>0.219568128677551</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.0269710349219359</v>
+        <v>0.08675529482746146</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7755045695666272</v>
+        <v>0.8059896990525435</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.82645544801217</v>
+        <v>19.42612444807929</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.34551487207315</v>
+        <v>12.469209319516</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.694687992544065</v>
+        <v>8.387017608149719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.86919404867396</v>
+        <v>13.68615325962626</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.518369168840136</v>
+        <v>8.928891861904468</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.228827911581634</v>
+        <v>2.272592354856308</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.129826366841782</v>
+        <v>3.653143048924763</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.048215072465934</v>
+        <v>3.2340191967356</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.98519248010831</v>
+        <v>6.228240433320612</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.674562643400672</v>
+        <v>3.361732814947182</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.966293842178054</v>
+        <v>4.695208676389595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.16830737018171</v>
+        <v>9.912933694732933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7001583730530858</v>
+        <v>0.7143967576908978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4050415143169346</v>
+        <v>0.4752623421908609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7057931569430389</v>
+        <v>0.7898529111931215</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.8195425553899004</v>
+        <v>0.9361306482980123</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.92378045137156</v>
+        <v>15.2753205895009</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.62654975890281</v>
+        <v>11.07264669322213</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.8463662166932</v>
+        <v>12.85410082085623</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.23131367633112</v>
+        <v>18.19251873796646</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.018068417886108</v>
+        <v>3.170745512405779</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.693004231197862</v>
+        <v>3.923942360505409</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.563884471994014</v>
+        <v>5.09189764459436</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.987308098080545</v>
+        <v>2.865184730290983</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>2.303611463519452</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>2.376527392734262</v>
+        <v>2.376527392734261</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.867884725343091</v>
+        <v>5.442064898162241</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.012618638694411</v>
+        <v>5.076397834910982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.301174669866812</v>
+        <v>2.333331112657749</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.649782394120905</v>
+        <v>8.156650570765871</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4590182538872135</v>
+        <v>0.4393297857408746</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4432562685292008</v>
+        <v>0.5391737756876609</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1738856851296468</v>
+        <v>0.2720765097975046</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>1.173907042374996</v>
+        <v>1.036901904143811</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.48735811665897</v>
+        <v>19.75608739226469</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.89205378833115</v>
+        <v>16.97734299969774</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.3165823047518</v>
+        <v>11.64111819645046</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.7506227084066</v>
+        <v>16.38129312305935</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.592487108038688</v>
+        <v>3.961951484824559</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5.219205251102299</v>
+        <v>5.03656287236339</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>7.92594741427769</v>
+        <v>7.466881988415575</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4.953151512610873</v>
+        <v>4.555169360640356</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.694104673666037</v>
+        <v>5.946055665149009</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2.761574209777817</v>
+        <v>2.939214859424183</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.050906179095954</v>
+        <v>4.104604867472998</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.240579943848982</v>
+        <v>6.064454974913859</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6379533498709185</v>
+        <v>0.6309550941497254</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1969283275400643</v>
+        <v>0.176126302204535</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5977047372518038</v>
+        <v>0.5330282912652309</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5596601515146171</v>
+        <v>0.5540392374989205</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.10661368730203</v>
+        <v>16.6123118026536</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.56771586137224</v>
+        <v>15.46502606691753</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13.83119736447457</v>
+        <v>13.81063781091304</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.22785077458886</v>
+        <v>14.60414024043876</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.572227230388896</v>
+        <v>3.719625502240792</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.866729678380395</v>
+        <v>1.822356620013934</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.779541289040717</v>
+        <v>5.045254238623129</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.09608265335479</v>
+        <v>2.223798789306057</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.961274811161218</v>
+        <v>3.074878058737855</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.029684147289477</v>
+        <v>5.764321405727521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.870686938414403</v>
+        <v>1.764490623150592</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.425819293306851</v>
+        <v>6.229954458467519</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2891496584807963</v>
+        <v>0.3198711825780344</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7407961346575634</v>
+        <v>0.6830372687656383</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3859649844504126</v>
+        <v>0.37415885915205</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.8117179438478744</v>
+        <v>0.7786812321768298</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.708827962513935</v>
+        <v>10.04446701212666</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.2452871867616</v>
+        <v>12.91513334329058</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.249336599267138</v>
+        <v>7.061796358100169</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.20534489498057</v>
+        <v>12.2529489505281</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.517200193674198</v>
+        <v>1.550923427659382</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.790866546716759</v>
+        <v>2.682216190880062</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>2.85608094111009</v>
+        <v>2.62921665399521</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.363961797150183</v>
+        <v>2.41691763272559</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.851015191393256</v>
+        <v>6.167681479376699</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.134693507655575</v>
+        <v>3.390920749098611</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.657335016496202</v>
+        <v>3.184632840693386</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.68400001210586</v>
+        <v>6.901535251984992</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4667189431691472</v>
+        <v>0.4714929160840943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6348022192113303</v>
+        <v>0.6717525028273341</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9159911024249469</v>
+        <v>0.7850460750234542</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1.638136750182325</v>
+        <v>1.688008629802814</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.12225326509345</v>
+        <v>13.35123615485501</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>8.092547355174318</v>
+        <v>8.50590413676516</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8.241767587562704</v>
+        <v>8.103001873112078</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>11.03528309863628</v>
+        <v>11.13531589375039</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.384427807741822</v>
+        <v>1.440980084099866</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.169203275381479</v>
+        <v>3.26159610536145</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>4.753481794512088</v>
+        <v>4.168629937028086</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4.723473214615273</v>
+        <v>4.686353564420802</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>5.776275237147223</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9.129838719774845</v>
+        <v>9.129838719774847</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1.445201286065596</v>
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>8.772134973954742</v>
+        <v>8.976453310273346</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>5.990632584752474</v>
+        <v>5.842422995522289</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.490598253340332</v>
+        <v>4.575247910739743</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.939005192946931</v>
+        <v>8.117545041242623</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.125304265752564</v>
+        <v>1.158725382549788</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>1.045369615688792</v>
+        <v>1.029710518851731</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.051545567635488</v>
+        <v>1.141516074670922</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>1.337029985637224</v>
+        <v>1.407224402902023</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.0654681137419</v>
+        <v>12.14806838705491</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.54997859447808</v>
+        <v>8.64588715312706</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.990422343654047</v>
+        <v>7.068619627509078</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.28813136051099</v>
+        <v>10.26155060446607</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.845550677639348</v>
+        <v>1.872995192185159</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.876291753221577</v>
+        <v>1.874315947807858</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2.225884250571964</v>
+        <v>2.27040645986407</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2.148010878249176</v>
+        <v>2.205602959159916</v>
       </c>
     </row>
     <row r="31">
